--- a/soma.xlsx
+++ b/soma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,41 +447,41 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Timestamp Dependence</t>
+          <t>naming-convention</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Integer Overflow and Underflow</t>
+          <t>solc-version</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Assert Violation</t>
+          <t>deprecated-standards</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
@@ -490,24 +490,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Authorization through tx.origin</t>
+          <t>low-level-calls</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Delegatecall to Untrusted Callee</t>
+          <t>missing-zero-check</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -516,75 +516,582 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Reentrancy</t>
+          <t>external-function</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Write to Arbitrary Storage Location</t>
+          <t>constable-states</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Unprotected Ether Withdrawal</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Weak Sources of Randomness from Chain Attributes</t>
+          <t>reentrancy-unlimited-gas</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DoS with Failed Call</t>
+          <t>unchecked-lowlevel</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>controlled-array-length</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>reentrancy-eth</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>unchecked-send</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>arbitrary-send-eth</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>reentrancy-events</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Unprotected SELFDESTRUCT Instruction</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>reentrancy-benign</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>incorrect-equality</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>dead-code</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>events-maths</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>too-many-digits</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>events-access</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>weak-prng</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>incorrect-modifier</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>reentrancy-no-eth</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>calls-loop</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>boolean-equal</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>shadowing-local</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>divide-before-multiply</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>unused-state</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>erc20-interface</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>tautology</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>shadowing-state</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>constant-function-asm</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>assembly</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>similar-names</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>uninitialized-state</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>costly-loop</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>uninitialized-storage</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>controlled-delegatecall</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>unchecked-transfer</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>locked-ether</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cache-array-length</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>tx-origin</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>suicidal</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>uninitialized-local</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>missing-inheritance</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>unused-return</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>shadowing-builtin</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>redundant-statements</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>return-bomb</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
         <v>1</v>
       </c>
     </row>
